--- a/sample_2.xlsx
+++ b/sample_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sj_ruby_domacizadatak\sj_ruby_domacizadatak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0B7BBB-345C-4AC1-9DAC-A4231123BDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23533CF2-D269-4B96-A276-CD5CA5B89F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9E2DA-4D52-49B7-BD0F-92FC568F0898}">
-  <dimension ref="E23:H28"/>
+  <dimension ref="E23:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,12 +442,30 @@
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>SUBTOTAL(9, E24:E27)</f>
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
-        <f>SUBTOTAL(9,G24:G27)</f>
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
